--- a/individual_case_outputs/avey/123.xlsx
+++ b/individual_case_outputs/avey/123.xlsx
@@ -598,7 +598,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asthma</t>
+          <t>paradoxical vocal cord motion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>allergic bronchitis</t>
+          <t>chronic bronchitis</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -656,11 +656,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>paradoxical vocal cord motion</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>heart failure</t>
@@ -673,7 +669,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>allergic bronchitis</t>
+          <t>inflammatory lung disease</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
